--- a/www/IndicatorsPerCountry/Bangladesh_GDPperCapita_TerritorialRef_1971_2012_CCode_50.xlsx
+++ b/www/IndicatorsPerCountry/Bangladesh_GDPperCapita_TerritorialRef_1971_2012_CCode_50.xlsx
@@ -225,13 +225,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Bangladesh_GDPperCapita_TerritorialRef_1971_2012_CCode_50.xlsx
+++ b/www/IndicatorsPerCountry/Bangladesh_GDPperCapita_TerritorialRef_1971_2012_CCode_50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,166 +36,184 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>631.031173317</t>
-  </si>
-  <si>
-    <t>642.370757075</t>
-  </si>
-  <si>
-    <t>664.023617112</t>
-  </si>
-  <si>
-    <t>683.324893511</t>
-  </si>
-  <si>
-    <t>699.982761625</t>
-  </si>
-  <si>
-    <t>722.793054908</t>
-  </si>
-  <si>
-    <t>744.018429908</t>
-  </si>
-  <si>
-    <t>771.19125326</t>
-  </si>
-  <si>
-    <t>797.796673366</t>
-  </si>
-  <si>
-    <t>822.344038633</t>
-  </si>
-  <si>
-    <t>856.299878281</t>
-  </si>
-  <si>
-    <t>885.869733697</t>
-  </si>
-  <si>
-    <t>908.751486683</t>
-  </si>
-  <si>
-    <t>939.756372931</t>
-  </si>
-  <si>
-    <t>981.617690679</t>
-  </si>
-  <si>
-    <t>1022.74376937</t>
-  </si>
-  <si>
-    <t>1072.80845514</t>
-  </si>
-  <si>
-    <t>1123.54898935</t>
-  </si>
-  <si>
-    <t>1174.22196155</t>
-  </si>
-  <si>
-    <t>1223.77738792</t>
-  </si>
-  <si>
-    <t>1276.23077943</t>
+    <t>861</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1031.42994915762</t>
+  </si>
+  <si>
+    <t>1062.46039963364</t>
+  </si>
+  <si>
+    <t>1095.65638403607</t>
+  </si>
+  <si>
+    <t>1136.41846534845</t>
+  </si>
+  <si>
+    <t>1182.95140041245</t>
+  </si>
+  <si>
+    <t>1234.08406379444</t>
+  </si>
+  <si>
+    <t>1291.5125695079</t>
+  </si>
+  <si>
+    <t>1348.1499270396</t>
+  </si>
+  <si>
+    <t>1412.98132124769</t>
+  </si>
+  <si>
+    <t>1485.30922045797</t>
+  </si>
+  <si>
+    <t>1551.19647671542</t>
+  </si>
+  <si>
+    <t>1621.26697138793</t>
+  </si>
+  <si>
+    <t>1710.73135124973</t>
+  </si>
+  <si>
+    <t>1812.62466142731</t>
+  </si>
+  <si>
+    <t>1925.60616962229</t>
+  </si>
+  <si>
+    <t>2057.698392171</t>
+  </si>
+  <si>
+    <t>2194.42233788701</t>
+  </si>
+  <si>
+    <t>2321.05045875432</t>
+  </si>
+  <si>
+    <t>2448.88687843863</t>
+  </si>
+  <si>
+    <t>2599.2083634666</t>
+  </si>
+  <si>
+    <t>2772</t>
+  </si>
+  <si>
+    <t>2914</t>
+  </si>
+  <si>
+    <t>3057</t>
+  </si>
+  <si>
+    <t>3217</t>
+  </si>
+  <si>
+    <t>3402</t>
+  </si>
+  <si>
+    <t>3604</t>
   </si>
   <si>
     <t>Description</t>
@@ -1336,6 +1354,108 @@
         <v>60</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1351,50 +1471,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
